--- a/Traduzido/PTBR/Lang/PTBR/Game/Research.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Research.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212C3706-CAC9-4405-94DD-CE9E8072323B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97611DE2-C4D9-4ABE-AA92-CDC922DC28D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3060" windowWidth="17790" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Research" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,6 @@
     <t>Alpha 20.27</t>
   </si>
   <si>
-    <t>Pedra de Fogo</t>
-  </si>
-  <si>
     <t>Licença de Exploração</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Plano de Testes B</t>
+  </si>
+  <si>
+    <t>Pedra da Cidade</t>
   </si>
 </sst>
 </file>
@@ -542,14 +542,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C11"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -586,7 +587,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -603,7 +604,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -620,7 +621,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -637,7 +638,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -654,7 +655,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -671,7 +672,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -688,7 +689,7 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -705,7 +706,7 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -722,7 +723,7 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
